--- a/database/Steel Data Mar 10 _backup.xlsx
+++ b/database/Steel Data Mar 10 _backup.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanghyun/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanghyun/Github/systempathway/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D86F04-B8AF-064A-9B5F-047EC37AB7C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1241677B-B06E-7747-846B-32513F481F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="12840" windowWidth="38400" windowHeight="19860" tabRatio="775" activeTab="4" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
+    <workbookView xWindow="18120" yWindow="5820" windowWidth="38400" windowHeight="19860" tabRatio="775" activeTab="8" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="18" r:id="rId1"/>
@@ -1230,7 +1230,7 @@
   <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9915,7 +9915,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G14"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10306,8 +10306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF08FAA-2FE8-334E-925F-993A56983EE6}">
   <dimension ref="A1:AA14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10567,7 +10567,7 @@
         <v>1800000</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:AA14" si="5">R3</f>
+        <f t="shared" ref="S3:S14" si="5">R3</f>
         <v>1800000</v>
       </c>
       <c r="T3">
@@ -13246,7 +13246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5339A0-3D98-43CE-86F7-53EF60721306}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -13309,7 +13309,7 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>2051</v>
+        <v>2030</v>
       </c>
     </row>
   </sheetData>
